--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1081.04756</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2817.7396</v>
-      </c>
-      <c r="D2" t="n">
-        <v>284.85907</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.11956</v>
-      </c>
-      <c r="F2" t="n">
-        <v>229.44683</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4320.14525</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1011.24375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>897.70442</v>
-      </c>
-      <c r="J2" t="n">
-        <v>432.20108</v>
-      </c>
-      <c r="K2" t="n">
-        <v>842.67858</v>
-      </c>
-      <c r="L2" t="n">
-        <v>130.60072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164.71304</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1620.66504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1401.37999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>292.96831</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>537.17139</v>
-      </c>
-      <c r="R2" t="n">
-        <v>336.7052</v>
-      </c>
-      <c r="S2" t="n">
-        <v>197.48931</v>
-      </c>
-      <c r="T2" t="n">
-        <v>465.95216</v>
-      </c>
-      <c r="U2" t="n">
-        <v>704.64725</v>
-      </c>
-      <c r="V2" t="n">
-        <v>376.80719</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2187.39631</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12364.01234</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1916.33443</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1564.35533</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>286.87039</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2266.74228</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3094.23814</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2526.38737</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1050.1894</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>59467.49773</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1232.50159</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>907.43008</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3073.60019</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>357.15319</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>736.71995</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1320.65038</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1185.54391</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4768.1026</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>125.17784</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1059.5249</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2988.56266</v>
-      </c>
-      <c r="D3" t="n">
-        <v>301.26713</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.63791</v>
-      </c>
-      <c r="F3" t="n">
-        <v>253.46948</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4478.44298</v>
-      </c>
-      <c r="H3" t="n">
-        <v>858.65572</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1030.34154</v>
-      </c>
-      <c r="J3" t="n">
-        <v>522.18019</v>
-      </c>
-      <c r="K3" t="n">
-        <v>929.44927</v>
-      </c>
-      <c r="L3" t="n">
-        <v>139.488</v>
-      </c>
-      <c r="M3" t="n">
-        <v>172.60191</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1631.45598</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1501.21763</v>
-      </c>
-      <c r="P3" t="n">
-        <v>291.51339</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>582.42099</v>
-      </c>
-      <c r="R3" t="n">
-        <v>369.83324</v>
-      </c>
-      <c r="S3" t="n">
-        <v>189.75294</v>
-      </c>
-      <c r="T3" t="n">
-        <v>480.90773</v>
-      </c>
-      <c r="U3" t="n">
-        <v>720.97901</v>
-      </c>
-      <c r="V3" t="n">
-        <v>380.17805</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2412.39854</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13966.69465</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2237.36707</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1650.43919</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>304.35757</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2424.08253</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3286.74526</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2622.40157</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1138.29457</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>63463.97988</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1374.46906</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>985.67599</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3068.05256</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>362.8661</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>779.08986</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1321.12329</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1201.19033</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4989.79005</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>131.18889</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1086.52858</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3135.15176</v>
-      </c>
-      <c r="D4" t="n">
-        <v>323.29471</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.13244</v>
-      </c>
-      <c r="F4" t="n">
-        <v>278.83052</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4696.3101</v>
-      </c>
-      <c r="H4" t="n">
-        <v>850.2616400000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1208.18125</v>
-      </c>
-      <c r="J4" t="n">
-        <v>510.24156</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1010.69299</v>
-      </c>
-      <c r="L4" t="n">
-        <v>159.51813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>201.21844</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1716.02518</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1633.32241</v>
-      </c>
-      <c r="P4" t="n">
-        <v>296.45691</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>640.64726</v>
-      </c>
-      <c r="R4" t="n">
-        <v>377.93425</v>
-      </c>
-      <c r="S4" t="n">
-        <v>186.59191</v>
-      </c>
-      <c r="T4" t="n">
-        <v>515.17818</v>
-      </c>
-      <c r="U4" t="n">
-        <v>707.09663</v>
-      </c>
-      <c r="V4" t="n">
-        <v>413.95028</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2713.83731</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15467.94559</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2603.15168</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1720.95701</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>330.20988</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2329.82394</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3457.24305</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2807.36545</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1304.63491</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67882.55008</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1464.39723</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1020.44139</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3206.501</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>382.01528</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>878.14965</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1394.22979</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1245.82019</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5121.24424</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>150.58859</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
